--- a/gso-7085/instance_4.xlsx
+++ b/gso-7085/instance_4.xlsx
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>53842</t>
-  </si>
-  <si>
-    <t>38047</t>
-  </si>
-  <si>
-    <t>80150</t>
-  </si>
-  <si>
-    <t>71561</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t># pièce</t>
   </si>
@@ -90,10 +78,16 @@
     <t>positionnement</t>
   </si>
   <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.42</t>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
   </si>
 </sst>
 </file>
@@ -476,7 +470,7 @@
   <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,50 +491,50 @@
   <sheetData>
     <row r="1" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
-        <v>6.8976499999999996</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -551,25 +545,25 @@
       <c r="F2" s="7">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
+      <c r="I2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>5.1226349999999998</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>1.5764499999999999</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
@@ -577,23 +571,23 @@
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
+      <c r="I3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>8.8796999999999997</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>7.5849000000000002</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -601,19 +595,19 @@
       <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
-        <v>21</v>
+      <c r="I4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>1.4217500000000001</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>3.7492850000000004</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5">
@@ -628,17 +622,17 @@
       <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
+      <c r="I5">
+        <v>0.1</v>
       </c>
       <c r="J5" s="6">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="K5" s="6">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="L5" s="2">
-        <v>2.5099999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1682,15 +1676,15 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
         <v>0.50462608291482713</v>
@@ -1701,7 +1695,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>0.37892831927088649</v>
@@ -1712,7 +1706,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
         <v>0.11644559781428605</v>

--- a/gso-7085/instance_4.xlsx
+++ b/gso-7085/instance_4.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/gso-7085/instance_4.xlsx
+++ b/gso-7085/instance_4.xlsx
@@ -131,7 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -151,6 +151,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -470,7 +476,7 @@
   <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,11 +542,9 @@
       <c r="C2" s="2">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
@@ -554,23 +558,19 @@
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6">
         <v>1</v>
       </c>
+      <c r="G3" s="6"/>
       <c r="I3">
         <v>0.5</v>
       </c>
@@ -580,23 +580,23 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0.1</v>
+      <c r="I4" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -604,14 +604,16 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
       <c r="E5">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
@@ -619,21 +621,13 @@
       <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>0.1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>

--- a/gso-7085/instance_4.xlsx
+++ b/gso-7085/instance_4.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3">
@@ -583,11 +583,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
